--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
@@ -40,24 +40,21 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>died</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,118 +67,121 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
         <v>31</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6818181818181818</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4583333333333333</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4285714285714285</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>408</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3433476394849785</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2674418604651163</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,95 +976,71 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.78125</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>46</v>
-      </c>
-      <c r="M10">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="K11">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L11">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2625</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>59</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,21 +1052,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,21 +1078,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.8035714285714286</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1128,47 +1104,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L15">
+        <v>104</v>
+      </c>
+      <c r="M15">
+        <v>104</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>38</v>
-      </c>
-      <c r="M15">
-        <v>38</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7413793103448276</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1185,16 +1161,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1206,47 +1182,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L18">
+        <v>73</v>
+      </c>
+      <c r="M18">
+        <v>73</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>33</v>
-      </c>
-      <c r="K18">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
-      <c r="M18">
-        <v>12</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6896551724137931</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,21 +1260,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6712328767123288</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1310,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1336,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5821596244131455</v>
+        <v>0.58</v>
       </c>
       <c r="L24">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5454545454545454</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1440,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5263157894736842</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5151515151515151</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5069444444444444</v>
+        <v>0.464406779661017</v>
       </c>
       <c r="L29">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="M29">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>71</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1544,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,47 +1546,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>47</v>
-      </c>
-      <c r="K32">
-        <v>0.4673913043478261</v>
-      </c>
-      <c r="L32">
-        <v>43</v>
-      </c>
-      <c r="M32">
-        <v>43</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4418604651162791</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1622,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.34375</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1648,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1674,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1700,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3421052631578947</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1726,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>858</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3243243243243243</v>
+        <v>0.03329633740288569</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1752,59 +1728,85 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>871</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.03902439024390244</v>
+        <v>0.01261682242990654</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>394</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.01095713825330326</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40">
+        <v>0.89</v>
+      </c>
+      <c r="O40">
+        <v>0.11</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K40">
-        <v>0.02816901408450704</v>
-      </c>
-      <c r="L40">
-        <v>12</v>
-      </c>
-      <c r="M40">
-        <v>12</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>414</v>
+      <c r="K41">
+        <v>0.006259780907668232</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <v>0.77</v>
+      </c>
+      <c r="O41">
+        <v>0.23</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3175</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,135 +40,144 @@
     <t>name</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>well</t>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
@@ -179,9 +188,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7307692307692307</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7058823529411765</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -708,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6551724137931034</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6111111111111112</v>
+        <v>0.28</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="K6">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L6">
-        <v>24</v>
-      </c>
       <c r="M6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5958904109589042</v>
+        <v>0.2228682170542636</v>
       </c>
       <c r="C7">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="D7">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>118</v>
+        <v>401</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2093023255813954</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>408</v>
+        <v>151</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -904,117 +910,69 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="C9">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>150</v>
-      </c>
       <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="L9">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <v>28</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8203125</v>
+      </c>
+      <c r="L10">
+        <v>105</v>
+      </c>
+      <c r="M10">
+        <v>105</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L9">
-        <v>46</v>
-      </c>
-      <c r="M9">
-        <v>46</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1409395973154362</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>128</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.78125</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <v>100</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,21 +984,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1052,21 +1010,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7682926829268293</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1078,21 +1036,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7333333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1104,21 +1062,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7323943661971831</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1130,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1156,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1182,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6886792452830188</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M18">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1208,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6595744680851063</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1234,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6388888888888888</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1260,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1286,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5851063829787234</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1312,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5833333333333334</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1338,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1364,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5588235294117647</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1390,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1416,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5195822454308094</v>
+        <v>0.5483028720626631</v>
       </c>
       <c r="L27">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="M27">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1442,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4735294117647059</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L28">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1468,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>179</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.464406779661017</v>
+        <v>0.475</v>
       </c>
       <c r="L29">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1494,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4382022471910113</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1520,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1546,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3974358974358974</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1572,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3972602739726027</v>
+        <v>0.464406779661017</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1598,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.34375</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1624,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3430962343096234</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L35">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1650,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>157</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.2857142857142857</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1676,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.04026845637583892</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1702,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>858</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.03329633740288569</v>
+        <v>0.359375</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1728,85 +1686,189 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>871</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.01261682242990654</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2113</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.01095713825330326</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>3069</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>24</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.04138702460850112</v>
+      </c>
+      <c r="L42">
+        <v>37</v>
+      </c>
+      <c r="M42">
+        <v>37</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K41">
-        <v>0.006259780907668232</v>
-      </c>
-      <c r="L41">
-        <v>20</v>
-      </c>
-      <c r="M41">
-        <v>26</v>
-      </c>
-      <c r="N41">
-        <v>0.77</v>
-      </c>
-      <c r="O41">
-        <v>0.23</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3175</v>
+      <c r="K43">
+        <v>0.03107658157602664</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>28</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44">
+        <v>0.01448598130841122</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44">
+        <v>0.91</v>
+      </c>
+      <c r="O44">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45">
+        <v>0.008690054715159318</v>
+      </c>
+      <c r="L45">
+        <v>27</v>
+      </c>
+      <c r="M45">
+        <v>27</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
